--- a/AtividadeOrdenacao/Relatório - Trabalho de Busca e Ordenação - Dicionários/Tempo de Execução Algoritmos de Ordenação.xlsx
+++ b/AtividadeOrdenacao/Relatório - Trabalho de Busca e Ordenação - Dicionários/Tempo de Execução Algoritmos de Ordenação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\3periodo\JavaApplication1\Relatório - Trabalho de Busca e Ordenação - Dicionários\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\3periodo\AtividadeOrdenacao\Relatório - Trabalho de Busca e Ordenação - Dicionários\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFCCBEB-ABA1-45FE-891E-F34CE515A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4615E05-C893-4EA2-B838-02D10141A39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SelectionSort</t>
   </si>
@@ -45,19 +45,16 @@
     <t>ALGORITMO</t>
   </si>
   <si>
-    <t>TEMPO_EXEC_NANO_SEGUNDOS</t>
-  </si>
-  <si>
     <t>MÁQUINA</t>
   </si>
   <si>
     <t>WITOR</t>
   </si>
   <si>
-    <t>WENDERSON</t>
+    <t>TEMPO_EXEC_NANO_INGLES</t>
   </si>
   <si>
-    <t>ERLAN DIAS</t>
+    <t>TEMPO_EXEC_NANO_PORT</t>
   </si>
 </sst>
 </file>
@@ -134,7 +131,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -189,7 +186,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>TEMPO EXECUÇÃO NANO SEGUNDOS</a:t>
+              <a:t>TEMPO EXECUÇÃO NANO SEG INGLÊS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -239,7 +236,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TEMPO_EXEC_NANO_SEGUNDOS</c:v>
+                  <c:v>TEMPO_EXEC_NANO_INGLES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,22 +336,22 @@
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.98399999999999999</c:v>
+                  <c:v>19096754600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89700000000000002</c:v>
+                  <c:v>2200436100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60799999999999998</c:v>
+                  <c:v>13534549700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.505</c:v>
+                  <c:v>3891134100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48599999999999999</c:v>
+                  <c:v>17152500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,7 +433,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -551,7 +548,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>TEMPO EXECUÇÃO NANO SEGUNDOS</a:t>
+              <a:t>TEMPO EXECUÇÃO NANO SEG PORTUGUÊS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -597,11 +594,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TEMPO_EXEC_NANO_SEGUNDOS</c:v>
+                  <c:v>TEMPO_EXEC_NANO_PORT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -676,7 +673,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$26</c:f>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -699,31 +696,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$B$26</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.98399999999999999</c:v>
+                  <c:v>163885599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.897</c:v>
+                  <c:v>597897093100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60799999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.505</c:v>
+                  <c:v>421477357400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48599999999999999</c:v>
+                  <c:v>96329700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5482-424A-A427-86DB0178904E}"/>
+              <c16:uniqueId val="{00000000-C597-4A2E-80D2-8D9E045F7FFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,369 +795,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="423418800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>TEMPO EXECUÇÃO NANO SEGUNDOS</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TEMPO_EXEC_NANO_SEGUNDOS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$44:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>MergeSort</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>InsertionSort</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BubbleSort</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SelectionSort</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>QuickSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$44:$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6079999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48599999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B967-4DA2-A04E-F8FF4D54E1E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="423418800"/>
-        <c:axId val="423415192"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="423418800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="423415192"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="423415192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1320,46 +955,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -1866,511 +1461,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2915,23 +2005,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADFC5FD-5E11-4118-B42F-2FEA3FD2EAE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C23B690-DE99-4C65-BEC2-559D32E35E04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,44 +2036,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41378DA-B7DE-4611-B5A3-2E7DAF93D041}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3255,188 +2307,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>0.98399999999999999</v>
+        <v>19096754600</v>
+      </c>
+      <c r="C3" s="4">
+        <v>163885599</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>0.89700000000000002</v>
+        <v>2200436100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>597897093100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>0.60799999999999998</v>
+        <v>13534549700</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>0.505</v>
+        <v>3891134100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>421477357400</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>0.48599999999999999</v>
+        <v>17152500</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1.897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1.897</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="4">
-        <v>5.6079999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.48599999999999999</v>
+      <c r="C7" s="4">
+        <v>96329700</v>
       </c>
     </row>
   </sheetData>

--- a/AtividadeOrdenacao/Relatório - Trabalho de Busca e Ordenação - Dicionários/Tempo de Execução Algoritmos de Ordenação.xlsx
+++ b/AtividadeOrdenacao/Relatório - Trabalho de Busca e Ordenação - Dicionários/Tempo de Execução Algoritmos de Ordenação.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\3periodo\AtividadeOrdenacao\Relatório - Trabalho de Busca e Ordenação - Dicionários\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4615E05-C893-4EA2-B838-02D10141A39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93D0E28-6106-4132-908B-D37F41B8C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>SelectionSort</t>
   </si>
@@ -318,13 +328,13 @@
                   <c:v>MergeSort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>InsertionSort</c:v>
+                  <c:v>BubbleSort</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BubbleSort</c:v>
+                  <c:v>SelectionSort</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SelectionSort</c:v>
+                  <c:v>InsertionSort</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>QuickSort</c:v>
@@ -342,13 +352,13 @@
                   <c:v>19096754600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2200436100</c:v>
+                  <c:v>13534549700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13534549700</c:v>
+                  <c:v>3891134100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3891134100</c:v>
+                  <c:v>2200436100</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17152500</c:v>
@@ -431,39 +441,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="423418800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -594,11 +577,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TEMPO_EXEC_NANO_PORT</c:v>
+                  <c:v>TEMPO_EXEC_NANO_INGLES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -673,20 +656,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$9:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>MergeSort</c:v>
+                  <c:v>InsertionSort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>InsertionSort</c:v>
+                  <c:v>SelectionSort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BubbleSort</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SelectionSort</c:v>
+                  <c:v>MergeSort</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>QuickSort</c:v>
@@ -696,21 +679,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Sheet1!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>163885599</c:v>
+                  <c:v>597897093100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>597897093100</c:v>
+                  <c:v>421477357400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>67672748500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>421477357400</c:v>
+                  <c:v>163885599</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>96329700</c:v>
@@ -793,39 +776,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="423418800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2307,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2324,7 +2280,7 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2332,69 +2288,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>19096754600</v>
       </c>
-      <c r="C3" s="4">
-        <v>163885599</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>13534549700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3891134100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="4">
         <v>2200436100</v>
       </c>
-      <c r="C4" s="4">
-        <v>597897093100</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>13534549700</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3891134100</v>
-      </c>
-      <c r="C6" s="4">
-        <v>421477357400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>17152500</v>
       </c>
-      <c r="C7" s="4">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>597897093100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>421477357400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>67672748500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>163885599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
         <v>96329700</v>
       </c>
     </row>
@@ -2406,4 +2392,144 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08542458-A0FD-4C4B-9B54-872499D6F519}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>597897093100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>421477357400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>67672748500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>163885599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>96329700</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition descending="1" ref="B1:B6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F67F2F8-C0E4-4A83-B4CC-664BE877ABCD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>19096754600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>13534549700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3891134100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2200436100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>17152500</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition descending="1" ref="B1:B6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AtividadeOrdenacao/Relatório - Trabalho de Busca e Ordenação - Dicionários/Tempo de Execução Algoritmos de Ordenação.xlsx
+++ b/AtividadeOrdenacao/Relatório - Trabalho de Busca e Ordenação - Dicionários/Tempo de Execução Algoritmos de Ordenação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\3periodo\AtividadeOrdenacao\Relatório - Trabalho de Busca e Ordenação - Dicionários\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93D0E28-6106-4132-908B-D37F41B8C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86424947-A12C-4A0C-86E1-481C4F752E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
